--- a/Prop_Sims/results.xlsx
+++ b/Prop_Sims/results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="188">
   <si>
     <t>time</t>
   </si>
@@ -40,12 +40,27 @@
     <t>working</t>
   </si>
   <si>
+    <t>sensors failing</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>0.9603999999999999</t>
   </si>
   <si>
+    <t>0.019600000000000017</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>0.9223681599999999</t>
   </si>
   <si>
@@ -157,6 +172,336 @@
     <t>0.21536828643569036</t>
   </si>
   <si>
+    <t>0.0021106092070697657</t>
+  </si>
+  <si>
+    <t>0.00206839702292837</t>
+  </si>
+  <si>
+    <t>0.008914008079019023</t>
+  </si>
+  <si>
+    <t>0.018078415936000014</t>
+  </si>
+  <si>
+    <t>0.009039207967999998</t>
+  </si>
+  <si>
+    <t>0.00885842380864</t>
+  </si>
+  <si>
+    <t>0.008681255332467198</t>
+  </si>
+  <si>
+    <t>0.008507630225817854</t>
+  </si>
+  <si>
+    <t>0.008337477621301497</t>
+  </si>
+  <si>
+    <t>0.008170728068875466</t>
+  </si>
+  <si>
+    <t>0.008007313507497957</t>
+  </si>
+  <si>
+    <t>0.007847167237347998</t>
+  </si>
+  <si>
+    <t>0.007690223892601038</t>
+  </si>
+  <si>
+    <t>0.007536419414749017</t>
+  </si>
+  <si>
+    <t>0.007385691026454037</t>
+  </si>
+  <si>
+    <t>0.0072379772059249555</t>
+  </si>
+  <si>
+    <t>0.007093217661806457</t>
+  </si>
+  <si>
+    <t>0.006951353308570328</t>
+  </si>
+  <si>
+    <t>0.006812326242398921</t>
+  </si>
+  <si>
+    <t>0.006676079717550942</t>
+  </si>
+  <si>
+    <t>0.006542558123199923</t>
+  </si>
+  <si>
+    <t>0.0064117069607359245</t>
+  </si>
+  <si>
+    <t>0.006283472821521206</t>
+  </si>
+  <si>
+    <t>0.006157803365090781</t>
+  </si>
+  <si>
+    <t>0.006034647297788965</t>
+  </si>
+  <si>
+    <t>0.005913954351833187</t>
+  </si>
+  <si>
+    <t>0.0057956752647965225</t>
+  </si>
+  <si>
+    <t>0.005679761759500592</t>
+  </si>
+  <si>
+    <t>0.00556616652431058</t>
+  </si>
+  <si>
+    <t>0.005454843193824369</t>
+  </si>
+  <si>
+    <t>0.005345746329947882</t>
+  </si>
+  <si>
+    <t>0.005238831403348924</t>
+  </si>
+  <si>
+    <t>0.005134054775281945</t>
+  </si>
+  <si>
+    <t>0.005031373679776306</t>
+  </si>
+  <si>
+    <t>0.0049307462061807805</t>
+  </si>
+  <si>
+    <t>0.004832131282057165</t>
+  </si>
+  <si>
+    <t>0.004735488656416021</t>
+  </si>
+  <si>
+    <t>0.004640778883287701</t>
+  </si>
+  <si>
+    <t>0.0045479633056219465</t>
+  </si>
+  <si>
+    <t>0.004457004039509507</t>
+  </si>
+  <si>
+    <t>0.00928155776657541</t>
+  </si>
+  <si>
+    <t>0.006034647297788967</t>
+  </si>
+  <si>
+    <t>0.005795675264796523</t>
+  </si>
+  <si>
+    <t>0.005679761759500593</t>
+  </si>
+  <si>
+    <t>0.005566166524310581</t>
+  </si>
+  <si>
+    <t>0.00493074620618078</t>
+  </si>
+  <si>
+    <t>0.004832131282057164</t>
+  </si>
+  <si>
+    <t>0.0046407788832877</t>
+  </si>
+  <si>
+    <t>0.004367863958719317</t>
+  </si>
+  <si>
+    <t>0.0042805066795449315</t>
+  </si>
+  <si>
+    <t>0.004194896545954032</t>
+  </si>
+  <si>
+    <t>0.004110998615034951</t>
+  </si>
+  <si>
+    <t>0.004028778642734252</t>
+  </si>
+  <si>
+    <t>0.003948203069879567</t>
+  </si>
+  <si>
+    <t>0.003869239008481976</t>
+  </si>
+  <si>
+    <t>0.0037918542283123364</t>
+  </si>
+  <si>
+    <t>0.0037160171437460895</t>
+  </si>
+  <si>
+    <t>0.003641696800871168</t>
+  </si>
+  <si>
+    <t>0.0035688628648537445</t>
+  </si>
+  <si>
+    <t>0.0034974856075566693</t>
+  </si>
+  <si>
+    <t>0.0034275358954055355</t>
+  </si>
+  <si>
+    <t>0.003358985177497425</t>
+  </si>
+  <si>
+    <t>0.0032918054739474764</t>
+  </si>
+  <si>
+    <t>0.0032259693644685265</t>
+  </si>
+  <si>
+    <t>0.0031614499771791564</t>
+  </si>
+  <si>
+    <t>0.003098220977635573</t>
+  </si>
+  <si>
+    <t>0.003036256558082862</t>
+  </si>
+  <si>
+    <t>0.002975531426921204</t>
+  </si>
+  <si>
+    <t>0.007583708456624678</t>
+  </si>
+  <si>
+    <t>0.0098</t>
+  </si>
+  <si>
+    <t>0.009604</t>
+  </si>
+  <si>
+    <t>0.009411919999999999</t>
+  </si>
+  <si>
+    <t>0.009223681599999999</t>
+  </si>
+  <si>
+    <t>0.008858423808639998</t>
+  </si>
+  <si>
+    <t>0.007847167237348</t>
+  </si>
+  <si>
+    <t>0.007690223892601039</t>
+  </si>
+  <si>
+    <t>0.007237977205924956</t>
+  </si>
+  <si>
+    <t>0.006676079717550943</t>
+  </si>
+  <si>
+    <t>0.006283472821521205</t>
+  </si>
+  <si>
+    <t>0.01206929459557794</t>
+  </si>
+  <si>
+    <t>0.005913954351833186</t>
+  </si>
+  <si>
+    <t>0.005566166524310579</t>
+  </si>
+  <si>
+    <t>0.005454843193824368</t>
+  </si>
+  <si>
+    <t>0.005345746329947881</t>
+  </si>
+  <si>
+    <t>0.005238831403348923</t>
+  </si>
+  <si>
+    <t>0.005134054775281944</t>
+  </si>
+  <si>
+    <t>0.005031373679776305</t>
+  </si>
+  <si>
+    <t>0.004930746206180779</t>
+  </si>
+  <si>
+    <t>0.004832131282057163</t>
+  </si>
+  <si>
+    <t>0.00473548865641602</t>
+  </si>
+  <si>
+    <t>0.004547963305621946</t>
+  </si>
+  <si>
+    <t>0.00428050667954493</t>
+  </si>
+  <si>
+    <t>0.004194896545954031</t>
+  </si>
+  <si>
+    <t>0.0039482030698795665</t>
+  </si>
+  <si>
+    <t>0.003869239008481975</t>
+  </si>
+  <si>
+    <t>0.0037918542283123355</t>
+  </si>
+  <si>
+    <t>0.003716017143746089</t>
+  </si>
+  <si>
+    <t>0.0036416968008711674</t>
+  </si>
+  <si>
+    <t>0.0035688628648537436</t>
+  </si>
+  <si>
+    <t>0.0034974856075566684</t>
+  </si>
+  <si>
+    <t>0.003427535895405535</t>
+  </si>
+  <si>
+    <t>0.0033589851774974244</t>
+  </si>
+  <si>
+    <t>0.0032918054739474755</t>
+  </si>
+  <si>
+    <t>0.003225969364468526</t>
+  </si>
+  <si>
+    <t>0.0031614499771791555</t>
+  </si>
+  <si>
+    <t>0.0030982209776355724</t>
+  </si>
+  <si>
+    <t>0.003036256558082861</t>
+  </si>
+  <si>
+    <t>0.0029755314269212033</t>
+  </si>
+  <si>
+    <t>0.0029160207983827792</t>
+  </si>
+  <si>
+    <t>0.002857700382415124</t>
+  </si>
+  <si>
     <t>0.20683970229283702</t>
   </si>
   <si>
@@ -196,223 +541,52 @@
     <t>0.1273678214813207</t>
   </si>
   <si>
-    <t>partially working (1)</t>
-  </si>
-  <si>
-    <t>sensors failing</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.0098</t>
-  </si>
-  <si>
-    <t>0.009411919999999999</t>
-  </si>
-  <si>
-    <t>0.009039207967999998</t>
-  </si>
-  <si>
-    <t>0.008681255332467198</t>
-  </si>
-  <si>
-    <t>0.008337477621301496</t>
-  </si>
-  <si>
-    <t>0.008007313507497957</t>
-  </si>
-  <si>
-    <t>0.007690223892601037</t>
-  </si>
-  <si>
-    <t>0.007385691026454034</t>
-  </si>
-  <si>
-    <t>0.007093217661806455</t>
-  </si>
-  <si>
-    <t>0.006812326242398919</t>
-  </si>
-  <si>
-    <t>0.006542558123199922</t>
-  </si>
-  <si>
-    <t>0.006283472821521205</t>
-  </si>
-  <si>
-    <t>0.006034647297788965</t>
-  </si>
-  <si>
-    <t>0.0057956752647965225</t>
-  </si>
-  <si>
-    <t>0.00556616652431058</t>
-  </si>
-  <si>
-    <t>0.005345746329947881</t>
-  </si>
-  <si>
-    <t>0.005134054775281944</t>
-  </si>
-  <si>
-    <t>0.00493074620618078</t>
-  </si>
-  <si>
-    <t>0.004735488656416021</t>
-  </si>
-  <si>
-    <t>0.004547963305621946</t>
-  </si>
-  <si>
-    <t>0.004367863958719316</t>
-  </si>
-  <si>
-    <t>0.004194896545954031</t>
-  </si>
-  <si>
-    <t>0.0040287786427342515</t>
-  </si>
-  <si>
-    <t>0.003869239008481975</t>
-  </si>
-  <si>
-    <t>0.0037160171437460887</t>
-  </si>
-  <si>
-    <t>0.003568862864853743</t>
-  </si>
-  <si>
-    <t>0.003427535895405535</t>
-  </si>
-  <si>
-    <t>0.003291805473947476</t>
-  </si>
-  <si>
-    <t>0.003161449977179156</t>
-  </si>
-  <si>
-    <t>0.0030362565580828614</t>
-  </si>
-  <si>
-    <t>0.00291602079838278</t>
+    <t>0.0029160207983827797</t>
+  </si>
+  <si>
+    <t>0.0028577003824151242</t>
   </si>
   <si>
     <t>0.002800546374766822</t>
   </si>
   <si>
-    <t>0.002689644738326056</t>
-  </si>
-  <si>
-    <t>0.002583134806688344</t>
-  </si>
-  <si>
-    <t>0.002480842668343485</t>
-  </si>
-  <si>
-    <t>0.002382601298677083</t>
-  </si>
-  <si>
-    <t>0.0022882502872494702</t>
-  </si>
-  <si>
-    <t>0.0021976355758743914</t>
-  </si>
-  <si>
-    <t>0.0021106092070697657</t>
+    <t>0.0022882502872494707</t>
+  </si>
+  <si>
+    <t>0.0022424852815044814</t>
+  </si>
+  <si>
+    <t>0.002197635575874392</t>
+  </si>
+  <si>
+    <t>0.002153682864356904</t>
   </si>
   <si>
     <t>0.0020270290824698028</t>
   </si>
   <si>
-    <t>0.0019467587308039983</t>
-  </si>
-  <si>
-    <t>0.00186966708506416</t>
-  </si>
-  <si>
-    <t>0.001795628268495619</t>
+    <t>0.0019864885008204066</t>
+  </si>
+  <si>
+    <t>0.0019467587308039985</t>
+  </si>
+  <si>
+    <t>0.0019078235561879185</t>
+  </si>
+  <si>
+    <t>0.0018696670850641601</t>
+  </si>
+  <si>
+    <t>0.0018322737433628768</t>
+  </si>
+  <si>
+    <t>0.0017956282684956193</t>
+  </si>
+  <si>
+    <t>0.0017597157031257068</t>
   </si>
   <si>
     <t>0.0017245213890631926</t>
-  </si>
-  <si>
-    <t>0.00165623034205629</t>
-  </si>
-  <si>
-    <t>0.0015906436205108609</t>
-  </si>
-  <si>
-    <t>0.001527654133138631</t>
-  </si>
-  <si>
-    <t>0.001467159029466341</t>
-  </si>
-  <si>
-    <t>0.0014090595318994737</t>
-  </si>
-  <si>
-    <t>0.0013532607744362545</t>
-  </si>
-  <si>
-    <t>0.007283393601742341</t>
-  </si>
-  <si>
-    <t>0.007093217661806456</t>
-  </si>
-  <si>
-    <t>0.006812326242398921</t>
-  </si>
-  <si>
-    <t>0.006542558123199924</t>
-  </si>
-  <si>
-    <t>0.006283472821521207</t>
-  </si>
-  <si>
-    <t>0.006034647297788967</t>
-  </si>
-  <si>
-    <t>0.005795675264796523</t>
-  </si>
-  <si>
-    <t>0.005566166524310581</t>
-  </si>
-  <si>
-    <t>0.005345746329947882</t>
-  </si>
-  <si>
-    <t>0.014475954411849925</t>
-  </si>
-  <si>
-    <t>0.010691492659895772</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.007385691026454036</t>
-  </si>
-  <si>
-    <t>0.0072379772059249555</t>
-  </si>
-  <si>
-    <t>0.006951353308570327</t>
-  </si>
-  <si>
-    <t>0.016014627014995928</t>
-  </si>
-  <si>
-    <t>0.014186435323612927</t>
-  </si>
-  <si>
-    <t>0.01667495524260301</t>
   </si>
 </sst>
 </file>
@@ -798,10 +972,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -809,13 +983,13 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -823,13 +997,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -837,10 +1011,10 @@
         <v>1500</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -851,13 +1025,13 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -865,13 +1039,13 @@
         <v>2500</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -879,13 +1053,13 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -893,13 +1067,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -907,13 +1081,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -921,13 +1095,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -935,13 +1109,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -949,13 +1123,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -963,13 +1137,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -977,13 +1151,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -991,13 +1165,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1005,13 +1179,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1019,13 +1193,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1033,13 +1207,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1047,13 +1221,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1061,13 +1235,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1075,13 +1249,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1089,13 +1263,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1103,13 +1277,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1117,13 +1291,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1131,13 +1305,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1145,13 +1319,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1159,13 +1333,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1173,13 +1347,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1187,13 +1361,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1201,13 +1375,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1215,13 +1389,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1229,13 +1403,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1243,13 +1417,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1257,13 +1431,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1271,13 +1445,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1285,13 +1459,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1299,13 +1473,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1313,13 +1487,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1327,13 +1501,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1341,13 +1515,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1355,13 +1529,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1369,13 +1543,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1383,13 +1557,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1397,13 +1571,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1411,13 +1585,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1425,13 +1599,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1439,13 +1613,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1453,13 +1627,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1467,13 +1641,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1481,13 +1655,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1495,13 +1669,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1713,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1553,10 +1727,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1567,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1581,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1595,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1609,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1623,10 +1797,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1634,13 +1808,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1648,13 +1822,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1662,13 +1836,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1676,13 +1850,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1690,13 +1864,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1704,13 +1878,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1718,13 +1892,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1732,13 +1906,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1746,13 +1920,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1760,13 +1934,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1774,13 +1948,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1788,13 +1962,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1802,13 +1976,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1816,13 +1990,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1830,13 +2004,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1844,13 +2018,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1858,13 +2032,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1872,13 +2046,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1886,13 +2060,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1900,13 +2074,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1914,13 +2088,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1928,13 +2102,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1942,13 +2116,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1956,13 +2130,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1970,13 +2144,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1984,13 +2158,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1998,13 +2172,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2012,13 +2186,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2026,13 +2200,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2040,13 +2214,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2054,13 +2228,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2068,13 +2242,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2082,13 +2256,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2096,13 +2270,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2110,13 +2284,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2124,13 +2298,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2138,13 +2312,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2152,13 +2326,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2166,13 +2340,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2180,13 +2354,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2194,13 +2368,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2208,13 +2382,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2222,13 +2396,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2236,13 +2410,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2277,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2291,13 +2465,13 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2305,13 +2479,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2319,13 +2493,13 @@
         <v>1500</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2333,13 +2507,13 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2347,13 +2521,13 @@
         <v>2500</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2361,13 +2535,13 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2375,13 +2549,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2389,13 +2563,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2403,13 +2577,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2417,13 +2591,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2431,13 +2605,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2445,13 +2619,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2459,13 +2633,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2473,13 +2647,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2487,13 +2661,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2501,13 +2675,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2515,13 +2689,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2529,13 +2703,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2543,13 +2717,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2557,13 +2731,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2571,13 +2745,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2585,13 +2759,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2599,13 +2773,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2613,13 +2787,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2627,13 +2801,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2641,13 +2815,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2655,13 +2829,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2669,13 +2843,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2683,13 +2857,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2697,13 +2871,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2711,13 +2885,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2725,13 +2899,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2739,13 +2913,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2753,13 +2927,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2767,13 +2941,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2781,13 +2955,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2795,13 +2969,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2809,13 +2983,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2823,13 +2997,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2837,13 +3011,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2851,13 +3025,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2865,13 +3039,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2879,13 +3053,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2893,13 +3067,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2907,13 +3081,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2921,13 +3095,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2935,13 +3109,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2949,13 +3123,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2963,13 +3137,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2977,13 +3151,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3021,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3035,10 +3209,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3049,10 +3223,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3063,10 +3237,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3077,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3088,13 +3262,13 @@
         <v>2500</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3102,13 +3276,13 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3116,13 +3290,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3130,13 +3304,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3144,13 +3318,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3158,13 +3332,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3172,13 +3346,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3186,13 +3360,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3200,13 +3374,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3214,13 +3388,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3228,13 +3402,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3242,13 +3416,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3256,13 +3430,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3270,13 +3444,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3284,13 +3458,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3298,13 +3472,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3312,13 +3486,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3326,13 +3500,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3340,13 +3514,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3354,13 +3528,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3368,13 +3542,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3382,13 +3556,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3396,13 +3570,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3410,13 +3584,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3424,13 +3598,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3438,13 +3612,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3452,13 +3626,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3466,13 +3640,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3480,13 +3654,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3494,13 +3668,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3508,13 +3682,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3522,13 +3696,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3536,13 +3710,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3550,13 +3724,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3564,13 +3738,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3578,13 +3752,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3592,13 +3766,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3606,13 +3780,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3620,13 +3794,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3634,13 +3808,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3648,13 +3822,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3662,10 +3836,10 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
@@ -3676,13 +3850,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3690,13 +3864,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3704,13 +3878,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3718,13 +3892,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3762,10 +3936,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,10 +3950,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3787,13 +3961,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3801,13 +3975,13 @@
         <v>1500</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3815,13 +3989,13 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3829,13 +4003,13 @@
         <v>2500</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3843,13 +4017,13 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3857,13 +4031,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3871,13 +4045,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3885,13 +4059,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3899,13 +4073,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3913,13 +4087,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3927,13 +4101,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3941,13 +4115,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3955,13 +4129,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3969,13 +4143,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3983,13 +4157,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3997,13 +4171,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4011,13 +4185,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4025,13 +4199,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4039,13 +4213,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4053,13 +4227,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4067,13 +4241,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4081,13 +4255,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4095,13 +4269,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4109,13 +4283,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4123,13 +4297,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4137,13 +4311,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4151,13 +4325,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4165,13 +4339,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4179,13 +4353,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4193,13 +4367,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4207,13 +4381,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4221,13 +4395,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4235,13 +4409,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4249,13 +4423,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4263,13 +4437,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4277,13 +4451,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4291,13 +4465,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4305,13 +4479,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4319,13 +4493,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4333,13 +4507,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4347,13 +4521,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4361,13 +4535,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4375,13 +4549,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4389,13 +4563,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4403,13 +4577,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4417,13 +4591,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4431,13 +4605,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4445,13 +4619,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4459,13 +4633,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4503,10 +4677,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4517,10 +4691,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4531,10 +4705,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4545,10 +4719,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4559,10 +4733,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4573,10 +4747,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4587,10 +4761,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4601,10 +4775,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4615,10 +4789,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4629,10 +4803,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4643,10 +4817,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4657,10 +4831,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4668,13 +4842,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4682,13 +4856,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4696,13 +4870,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4710,13 +4884,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4724,13 +4898,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4738,13 +4912,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4752,13 +4926,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4766,13 +4940,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4780,13 +4954,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4794,13 +4968,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4808,13 +4982,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4822,13 +4996,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4836,13 +5010,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4850,13 +5024,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4864,13 +5038,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4878,13 +5052,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4892,13 +5066,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4906,13 +5080,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4920,13 +5094,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4934,13 +5108,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4948,13 +5122,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4962,13 +5136,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4976,13 +5150,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4990,13 +5164,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5004,13 +5178,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5018,13 +5192,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5032,13 +5206,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5046,13 +5220,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5060,13 +5234,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5074,13 +5248,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5088,13 +5262,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5102,13 +5276,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5116,13 +5290,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5130,13 +5304,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5144,13 +5318,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5158,13 +5332,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5172,13 +5346,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5186,13 +5360,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5200,13 +5374,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5241,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5255,13 +5429,13 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5269,13 +5443,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,13 +5457,13 @@
         <v>1500</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5297,13 +5471,13 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5311,13 +5485,13 @@
         <v>2500</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5325,13 +5499,13 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5339,13 +5513,13 @@
         <v>3500</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5353,13 +5527,13 @@
         <v>4000</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5367,13 +5541,13 @@
         <v>4500</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5381,13 +5555,13 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5395,13 +5569,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5409,13 +5583,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5423,13 +5597,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5437,13 +5611,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5451,13 +5625,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5465,13 +5639,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5479,13 +5653,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5493,13 +5667,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5507,13 +5681,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5521,13 +5695,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5535,13 +5709,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5549,10 +5723,10 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
@@ -5563,13 +5737,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5577,13 +5751,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5591,13 +5765,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5605,13 +5779,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5619,13 +5793,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5633,13 +5807,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5647,13 +5821,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5661,13 +5835,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5675,13 +5849,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5689,13 +5863,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5703,13 +5877,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5717,13 +5891,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5731,13 +5905,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5745,13 +5919,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5759,13 +5933,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5773,13 +5947,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5787,13 +5961,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5801,13 +5975,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5815,13 +5989,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5829,13 +6003,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5843,13 +6017,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5857,13 +6031,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5871,13 +6045,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5885,13 +6059,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5899,13 +6073,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5913,13 +6087,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5927,13 +6101,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5941,13 +6115,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +6159,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5999,10 +6173,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6013,10 +6187,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6027,10 +6201,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6041,10 +6215,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6055,10 +6229,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6069,10 +6243,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6083,10 +6257,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6097,10 +6271,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6111,10 +6285,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6125,10 +6299,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6136,13 +6310,13 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6150,13 +6324,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6164,13 +6338,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6178,13 +6352,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6192,13 +6366,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6206,13 +6380,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6220,13 +6394,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6234,13 +6408,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6248,13 +6422,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6262,13 +6436,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6276,13 +6450,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6290,13 +6464,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6304,13 +6478,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6318,13 +6492,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6332,13 +6506,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6346,13 +6520,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6360,13 +6534,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6374,13 +6548,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6388,13 +6562,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6402,13 +6576,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6416,13 +6590,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6430,13 +6604,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6444,13 +6618,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6458,13 +6632,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6472,13 +6646,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6486,13 +6660,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6500,13 +6674,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6514,13 +6688,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6528,13 +6702,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6542,13 +6716,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6556,13 +6730,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6570,13 +6744,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6584,13 +6758,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6598,13 +6772,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6612,13 +6786,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6626,13 +6800,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6640,13 +6814,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6654,13 +6828,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6668,13 +6842,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6682,13 +6856,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6726,10 +6900,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6740,10 +6914,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6754,10 +6928,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6768,10 +6942,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6782,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6796,10 +6970,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6810,10 +6984,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6824,10 +6998,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6838,10 +7012,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6852,10 +7026,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6866,10 +7040,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6880,10 +7054,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6894,10 +7068,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6908,10 +7082,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6922,10 +7096,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6936,10 +7110,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6950,10 +7124,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6964,10 +7138,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6978,10 +7152,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6992,10 +7166,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7006,10 +7180,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7020,10 +7194,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7034,10 +7208,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7048,10 +7222,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7062,10 +7236,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7076,10 +7250,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7090,10 +7264,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7104,10 +7278,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7118,10 +7292,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7132,10 +7306,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7146,10 +7320,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7160,10 +7334,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7174,10 +7348,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7188,10 +7362,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7202,10 +7376,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7216,10 +7390,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7230,10 +7404,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7244,10 +7418,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7258,10 +7432,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7272,10 +7446,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7286,10 +7460,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7300,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7314,10 +7488,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7328,10 +7502,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7342,10 +7516,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7356,10 +7530,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7370,10 +7544,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7384,10 +7558,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7398,10 +7572,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7412,10 +7586,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7426,10 +7600,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7467,10 +7641,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7481,10 +7655,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7495,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7509,10 +7683,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7523,10 +7697,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7537,10 +7711,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7551,10 +7725,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7565,10 +7739,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7579,10 +7753,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7593,10 +7767,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7607,10 +7781,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7621,10 +7795,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7632,13 +7806,13 @@
         <v>6000</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7646,13 +7820,13 @@
         <v>6500</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7660,13 +7834,13 @@
         <v>7000</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7674,13 +7848,13 @@
         <v>7500</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7688,13 +7862,13 @@
         <v>8000</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7702,13 +7876,13 @@
         <v>8500</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7716,13 +7890,13 @@
         <v>9000</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7730,13 +7904,13 @@
         <v>9500</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7744,13 +7918,13 @@
         <v>10000</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7758,13 +7932,13 @@
         <v>10500</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7772,13 +7946,13 @@
         <v>11000</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7786,13 +7960,13 @@
         <v>11500</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7800,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7814,13 +7988,13 @@
         <v>12500</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7828,13 +8002,13 @@
         <v>13000</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7842,13 +8016,13 @@
         <v>13500</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7856,13 +8030,13 @@
         <v>14000</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7870,13 +8044,13 @@
         <v>14500</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7884,13 +8058,13 @@
         <v>15000</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7898,13 +8072,13 @@
         <v>15500</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7912,13 +8086,13 @@
         <v>16000</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7926,13 +8100,13 @@
         <v>16500</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7940,13 +8114,13 @@
         <v>17000</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7954,13 +8128,13 @@
         <v>17500</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7968,13 +8142,13 @@
         <v>18000</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7982,13 +8156,13 @@
         <v>18500</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7996,13 +8170,13 @@
         <v>19000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8010,13 +8184,13 @@
         <v>19500</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8024,13 +8198,13 @@
         <v>20000</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8038,13 +8212,13 @@
         <v>20500</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8052,13 +8226,13 @@
         <v>21000</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8066,13 +8240,13 @@
         <v>21500</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8080,13 +8254,13 @@
         <v>22000</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8094,13 +8268,13 @@
         <v>22500</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8108,13 +8282,13 @@
         <v>23000</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8122,13 +8296,13 @@
         <v>23500</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8136,13 +8310,13 @@
         <v>24000</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8150,13 +8324,13 @@
         <v>24500</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8164,13 +8338,13 @@
         <v>25000</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
